--- a/docs/assets/disciplinas/LOT2012.xlsx
+++ b/docs/assets/disciplinas/LOT2012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introdução à Engenharia Ambiental para estudantes de Engenharia Bioquímica. Dar conhecimentos aos alunos de noções básicas sobre ecologia e impacto das atividades da engenharia sobre o meio ambiente Estudo da preservação do meio ambiente e tratamentos aplicados aos poluentes locais e globais. Conceitos legais e institucionais para o desenvolvimento sustentável.</t>
+    <t>1720367 - Teresa Cristina Brazil de Paiva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1720367 - Teresa Cristina Brazil de Paiva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1-Fundamentos; 2- Poluição Ambiental; 3- Desenvolvimento Sustentável</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1,FUNDAMENTOS: A crise ambiental e as leis da física. Fluxo de Energia nos ecossistemas, cadeias alimentares, sucessão ecológica e ciclos biogeoquímicos. Dinâmica das populações. Base para o desenvilmento sustentável. 2, POLUIÇÃO AMBIENTAL, CONTROLE E TRATAMENTO: O conceito de poluição e seu controle. O Meio Aquático: usos e requisitos de qualidades das águas parâmetros característicos da água. Poluição: fontes e poluição biodegradação, poluentes tóxicos e metais pesados, comportamento dos poluentes no meio aquático. Poluição em lagos: estratificação térmica e eutrofização , monitoramento da poluição da água, poluição difusa urbana e rural, Tratamento da água e de esgotos. O Meio Terrestre: origem, composição e formação dos solos, erosão e seu controle. Poluição do solo rural: fertilizantes, defensivos agrícolas, formas alternativas de controle de pragas do solo urbano, Formas de disposição e tratamento do lixo urbarno: compostagem, incineração e aterro sanitário. Resíduos perigosos: fontes, efeitos sobre a saúde e disposição e tratamento. O Meio Atmosférico: poluição global efeito estufa e camada de ozônio. Poluição local e regional: smog industrial e fotoquímico, efeitos da poluição do ar. Meteorologia e dispersão de poluentes: Processo de dispersão de plumas, controle da poluição do ar nas grandes cidades brasileiras. Poluição sonora. 3. DESENVOLVIMENTO SUSTENTÁVEL: A crise energética, fontes alternativas de energia. , análise econômica, relação benefício-custo, instrumentos de planejamento e gestão: alocação de custos, cobrança pelo uso dos recursos naturais, principio poluidor-pagador, outorga de uso de recursos naturais, avaliação de impactos ambientais: descrição geral, indicadores de impacto, métodos quantitativos, aspectos legais e institucionais do controle ambiental.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos serão avaliados por meio de duas provas (P1 e P2) e complementada por meio de trabalhos, seminários e/ou relatórios (C).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada atribuindo-se peso um para a primeira avaliação (P1 = 7 pontos e C = 3 pontos) e peso dois para a segunda avaliação (P2 = 10 pontos).A média ponderada das notas corresponderá à média do período letivo, ou seja: Média do período letivo normal = ((P1 + C) + P2.2)/3.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0 e 70% de frequência no curso.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1,Braga, B.P.F., M.T.,Conejo, J.G., Porto, M.F., Veras M.S., Nucci, N., Juliano, N. e Eiger, S. - Introdução à Engenharia Ambiental, Makron Books, São Paulo, 1998, 2. Sperling, M.V. - Princípios do Tratamento Biológico de Águas Residuárias. Desa-UFMG, Minas Gerais, 1996.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,34 +609,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,77 +653,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2012.xlsx
+++ b/docs/assets/disciplinas/LOT2012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introdução à Engenharia Ambiental para estudantes de Engenharia Bioquímica. Dar conhecimentos aos alunos de noções básicas sobre ecologia e impacto das atividades da engenharia sobre o meio ambiente Estudo da preservação do meio ambiente e tratamentos aplicados aos poluentes locais e globais. Conceitos legais e institucionais para o desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1720367 - Teresa Cristina Brazil de Paiva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1-Fundamentos; 2- Poluição Ambiental; 3- Desenvolvimento Sustentável</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1,FUNDAMENTOS: A crise ambiental e as leis da física. Fluxo de Energia nos ecossistemas, cadeias alimentares, sucessão ecológica e ciclos biogeoquímicos. Dinâmica das populações. Base para o desenvilmento sustentável. 2, POLUIÇÃO AMBIENTAL, CONTROLE E TRATAMENTO: O conceito de poluição e seu controle. O Meio Aquático: usos e requisitos de qualidades das águas parâmetros característicos da água. Poluição: fontes e poluição biodegradação, poluentes tóxicos e metais pesados, comportamento dos poluentes no meio aquático. Poluição em lagos: estratificação térmica e eutrofização , monitoramento da poluição da água, poluição difusa urbana e rural, Tratamento da água e de esgotos. O Meio Terrestre: origem, composição e formação dos solos, erosão e seu controle. Poluição do solo rural: fertilizantes, defensivos agrícolas, formas alternativas de controle de pragas do solo urbano, Formas de disposição e tratamento do lixo urbarno: compostagem, incineração e aterro sanitário. Resíduos perigosos: fontes, efeitos sobre a saúde e disposição e tratamento. O Meio Atmosférico: poluição global efeito estufa e camada de ozônio. Poluição local e regional: smog industrial e fotoquímico, efeitos da poluição do ar. Meteorologia e dispersão de poluentes: Processo de dispersão de plumas, controle da poluição do ar nas grandes cidades brasileiras. Poluição sonora. 3. DESENVOLVIMENTO SUSTENTÁVEL: A crise energética, fontes alternativas de energia. , análise econômica, relação benefício-custo, instrumentos de planejamento e gestão: alocação de custos, cobrança pelo uso dos recursos naturais, principio poluidor-pagador, outorga de uso de recursos naturais, avaliação de impactos ambientais: descrição geral, indicadores de impacto, métodos quantitativos, aspectos legais e institucionais do controle ambiental.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos serão avaliados por meio de duas provas (P1 e P2) e complementada por meio de trabalhos, seminários e/ou relatórios (C).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados por meio de duas provas (P1 e P2) e complementada por meio de trabalhos, seminários e/ou relatórios (C).</t>
+    <t>A nota final (NF) será calculada atribuindo-se peso um para a primeira avaliação (P1 = 7 pontos e C = 3 pontos) e peso dois para a segunda avaliação (P2 = 10 pontos).A média ponderada das notas corresponderá à média do período letivo, ou seja: Média do período letivo normal = ((P1 + C) + P2.2)/3.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0 e 70% de frequência no curso.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será calculada atribuindo-se peso um para a primeira avaliação (P1 = 7 pontos e C = 3 pontos) e peso dois para a segunda avaliação (P2 = 10 pontos).A média ponderada das notas corresponderá à média do período letivo, ou seja: Média do período letivo normal = ((P1 + C) + P2.2)/3.Serão aprovados os alunos que obtiverem média igual ou maior que 5,0 e 70% de frequência no curso.</t>
+    <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aos alunos que obtiverem média igual ou maior que 3,0 e menor que 5,0 será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2.Serão aprovados os alunos que obtiverem média final igual ou maior que 5,0.</t>
+    <t>1,Braga, B.P.F., M.T.,Conejo, J.G., Porto, M.F., Veras M.S., Nucci, N., Juliano, N. e Eiger, S. - Introdução à Engenharia Ambiental, Makron Books, São Paulo, 1998, 2. Sperling, M.V. - Princípios do Tratamento Biológico de Águas Residuárias. Desa-UFMG, Minas Gerais, 1996.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,37 +618,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,66 +659,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
